--- a/biology/Médecine/Georg_von_Békésy/Georg_von_Békésy.xlsx
+++ b/biology/Médecine/Georg_von_Békésy/Georg_von_Békésy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georg_von_B%C3%A9k%C3%A9sy</t>
+          <t>Georg_von_Békésy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg von Békésy (Békésy György en hongrois) (3 juin 1899, Budapest – 13 juin 1972, Honolulu), fut un biophysicien hongrois naturalisé américain après s'être réfugié aux États-Unis. En 1961, il reçut le prix Nobel de médecine pour ses travaux sur la cochlée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georg_von_B%C3%A9k%C3%A9sy</t>
+          <t>Georg_von_Békésy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Békésy a pour parents Sándor Békésy (1860–1923), économiste et diplomate né à kolozsvár, en Transylvanie, et de Paula Mazaly (1877–1974).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georg_von_B%C3%A9k%C3%A9sy</t>
+          <t>Georg_von_Békésy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Békésy joua un grand rôle dans la compréhension des mécanismes de l'audition en se servant de modèles pour analyser la perception des fréquences déterminant la hauteur d'un son.
 D'après ce modèle, la vibration sonore se propage le long de la membrane basilaire sous forme d'ondes longitudinales. Ces ondes possèdent des pics à divers endroits. La vibration ne concerne donc pas seulement une portion de capteurs situés sur la membrane basilaire.
